--- a/data/input/absenteeism_data_6.xlsx
+++ b/data/input/absenteeism_data_6.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30526</v>
+        <v>78324</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laura Gonçalves</t>
+          <t>Luiz Felipe Vieira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="G2" t="n">
-        <v>2741.18</v>
+        <v>2625.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>63500</v>
+        <v>1994</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Daniel Rodrigues</t>
+          <t>Caio da Cunha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45103</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>5082.24</v>
+        <v>10973.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8585</v>
+        <v>10288</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alana Farias</t>
+          <t>Bruna Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45096</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>10758.45</v>
+        <v>3674.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66116</v>
+        <v>16892</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raul Sales</t>
+          <t>Dr. Pedro da Rocha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>11970.64</v>
+        <v>11192.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>58215</v>
+        <v>92655</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yuri Campos</t>
+          <t>Ana Clara da Cruz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45100</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>6025.33</v>
+        <v>3388.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21921</v>
+        <v>28815</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mariana das Neves</t>
+          <t>Kaique Lima</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>4638.7</v>
+        <v>6298.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89056</v>
+        <v>3307</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Felipe da Cunha</t>
+          <t>Mariana Cavalcanti</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45100</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>7604.42</v>
+        <v>6229.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97358</v>
+        <v>61862</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Daniela Castro</t>
+          <t>Pedro Miguel da Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>6676.54</v>
+        <v>2854.43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>38467</v>
+        <v>41610</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Yasmin da Mata</t>
+          <t>Maria Rodrigues</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>10421.43</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>42250</v>
+        <v>98633</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Júlia Mendes</t>
+          <t>Cecília Barbosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45101</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>4003.39</v>
+        <v>5740.79</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_6.xlsx
+++ b/data/input/absenteeism_data_6.xlsx
@@ -476,127 +476,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>78324</v>
+        <v>80140</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Felipe Vieira</t>
+          <t>Rodrigo Teixeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>2625.38</v>
+        <v>5244.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1994</v>
+        <v>13069</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caio da Cunha</t>
+          <t>Nathan Gomes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>10973.43</v>
+        <v>4020.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10288</v>
+        <v>19029</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bruna Costa</t>
+          <t>João Pedro Ferreira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>3674.53</v>
+        <v>3070.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16892</v>
+        <v>17014</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Pedro da Rocha</t>
+          <t>Maria Alice da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>11192.11</v>
+        <v>3529.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>92655</v>
+        <v>14743</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Clara da Cruz</t>
+          <t>Manuela Nunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,51 +610,51 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45106</v>
+        <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>3388.74</v>
+        <v>3226.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>28815</v>
+        <v>8989</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kaique Lima</t>
+          <t>Bernardo Carvalho</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45103</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>6298.4</v>
+        <v>10329.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3307</v>
+        <v>18487</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mariana Cavalcanti</t>
+          <t>Igor Barbosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,89 +664,89 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>6229.01</v>
+        <v>11590.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>61862</v>
+        <v>78453</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pedro Miguel da Cunha</t>
+          <t>Dra. Beatriz Viana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>2854.43</v>
+        <v>10501.11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>41610</v>
+        <v>67375</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Rodrigues</t>
+          <t>Srta. Manuela Campos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45104</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>4977</v>
+        <v>11320.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98633</v>
+        <v>19946</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cecília Barbosa</t>
+          <t>Vitor Hugo Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>5740.79</v>
+        <v>11848.64</v>
       </c>
     </row>
   </sheetData>
